--- a/src/physion/acquisition/subjects/Cibele/demo-Mouse.xlsx
+++ b/src/physion/acquisition/subjects/Cibele/demo-Mouse.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a.yann.zerlaut\work\physion\src\physion\acquisition\subjects\Cibele\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18705" windowHeight="9945"/>
+  </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="95">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -239,104 +249,68 @@
     <t>Méthode d'euthanasie</t>
   </si>
   <si>
-    <t>ICM-010048-24</t>
-  </si>
-  <si>
-    <t>B6(Cg)-Ndnftm1.1(cre/ERT2)Ispgl/J_B6.129-Grin1tm1Rsp/Kctt_B6.Cg-Gt(ROSA)26Sortm14(CAG-tdTomato)Hze/J</t>
-  </si>
-  <si>
-    <t>Ndnf-IRES-CreERT2 ; NR1Flox ; Ai14-Tom</t>
-  </si>
-  <si>
     <t>165</t>
   </si>
   <si>
     <t>Femelle</t>
   </si>
   <si>
-    <t>Ndnf-Ires-CreERT2 || NR1flox || TdTomato</t>
-  </si>
-  <si>
-    <t>cre / wt || flox/flox || Tg/wt</t>
-  </si>
-  <si>
-    <t>Décoché</t>
-  </si>
-  <si>
-    <t>01 Tatouage phalange(s)</t>
-  </si>
-  <si>
-    <t>01 SOURIS</t>
-  </si>
-  <si>
-    <t>C57BL/6J</t>
-  </si>
-  <si>
-    <t>REBOLA n°269 : Décodage du traitement de l'information contextuelle par les microcircuits de la couche 1 du néocortex de la souris</t>
-  </si>
-  <si>
     <t>REBOLA Nelson</t>
   </si>
   <si>
-    <t>Inactif</t>
-  </si>
-  <si>
-    <t>Interne</t>
-  </si>
-  <si>
-    <t>[O1] Animaux nés dans l’UE chez un éleveur enregistré</t>
-  </si>
-  <si>
-    <t>344-24//</t>
-  </si>
-  <si>
     <t>Institut du Cerveau et de la Moelle épinière</t>
   </si>
   <si>
-    <t>[GS2] Génétiquement modifié sans phénotype nocif</t>
-  </si>
-  <si>
-    <t>Mise à mort</t>
-  </si>
-  <si>
-    <t>4 - classe sans réveil</t>
-  </si>
-  <si>
-    <t>D - Animal euthanasié pour autre raison</t>
-  </si>
-  <si>
-    <t>Recherche fondamentale</t>
-  </si>
-  <si>
-    <t>Système nerveux</t>
-  </si>
-  <si>
-    <t>Projet n°P269R</t>
-  </si>
-  <si>
-    <t>04 Zone Expé. A2 souris -3.076bis</t>
-  </si>
-  <si>
-    <t>n°54 GM70 AIGROT /REBOLA /SANTIN</t>
-  </si>
-  <si>
-    <t>4188-24</t>
-  </si>
-  <si>
-    <t>PICARD Timothee</t>
-  </si>
-  <si>
-    <t>CO2</t>
+    <t>SST_F3</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>C57B6/J</t>
+  </si>
+  <si>
+    <t>SST-ce</t>
+  </si>
+  <si>
+    <t>headplate+injection</t>
+  </si>
+  <si>
+    <t>SST_F4</t>
+  </si>
+  <si>
+    <t>SST_M1</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>SST_M2</t>
+  </si>
+  <si>
+    <t>PVNR1_M3</t>
+  </si>
+  <si>
+    <t>PV cre NR1 flox</t>
+  </si>
+  <si>
+    <t>SST_F1</t>
+  </si>
+  <si>
+    <t>SST_F2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SST-cre </t>
+  </si>
+  <si>
+    <t>SST-cre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/MM/yyyy"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,7 +348,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFA9A9A9"/>
@@ -388,41 +368,54 @@
       <bottom style="thin">
         <color rgb="FFA9A9A9"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -688,436 +681,395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
+  <dimension ref="A1:BY13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="BZ3" sqref="BZ3"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.57" customWidth="1"/>
-    <col min="2" max="2" width="3.57" customWidth="1"/>
-    <col min="3" max="3" width="8.57" customWidth="1"/>
+    <col min="1" max="2" width="3.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="28.57" customWidth="1"/>
-    <col min="6" max="6" width="28.57" customWidth="1"/>
-    <col min="7" max="7" width="8" customWidth="1"/>
-    <col min="8" max="8" width="9.29" customWidth="1"/>
-    <col min="9" max="9" width="6.43" customWidth="1"/>
-    <col min="10" max="10" width="11.57" customWidth="1"/>
-    <col min="11" max="11" width="10.57" customWidth="1"/>
-    <col min="12" max="12" width="13.43" customWidth="1"/>
-    <col min="13" max="13" width="30.71" customWidth="1"/>
-    <col min="14" max="14" width="20.29" customWidth="1"/>
-    <col min="15" max="15" width="10.43" customWidth="1"/>
-    <col min="16" max="16" width="9.57" customWidth="1"/>
-    <col min="17" max="17" width="12.43" customWidth="1"/>
-    <col min="18" max="18" width="8.43" customWidth="1"/>
-    <col min="19" max="19" width="18.57" customWidth="1"/>
-    <col min="20" max="20" width="8.86" customWidth="1"/>
-    <col min="21" max="21" width="28.57" customWidth="1"/>
-    <col min="22" max="22" width="90.86" customWidth="1"/>
-    <col min="23" max="23" width="6.43" customWidth="1"/>
-    <col min="24" max="24" width="11.43" customWidth="1"/>
-    <col min="25" max="25" width="10.71" customWidth="1"/>
-    <col min="26" max="26" width="11.86" customWidth="1"/>
-    <col min="27" max="27" width="9.86" customWidth="1"/>
-    <col min="28" max="28" width="5.86" customWidth="1"/>
-    <col min="29" max="29" width="7.71" customWidth="1"/>
-    <col min="30" max="30" width="38.86" customWidth="1"/>
-    <col min="31" max="31" width="13.14" customWidth="1"/>
-    <col min="32" max="32" width="15.57" customWidth="1"/>
-    <col min="33" max="33" width="10.43" customWidth="1"/>
-    <col min="34" max="34" width="30.86" customWidth="1"/>
-    <col min="35" max="35" width="8.86" customWidth="1"/>
-    <col min="36" max="36" width="9.86" customWidth="1"/>
-    <col min="37" max="37" width="6.43" customWidth="1"/>
-    <col min="38" max="38" width="10.43" customWidth="1"/>
-    <col min="39" max="39" width="8.14" customWidth="1"/>
-    <col min="40" max="40" width="13.43" customWidth="1"/>
-    <col min="41" max="41" width="36.57" customWidth="1"/>
+    <col min="5" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" customWidth="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" customWidth="1"/>
+    <col min="18" max="18" width="8.42578125" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" customWidth="1"/>
+    <col min="21" max="21" width="28.5703125" customWidth="1"/>
+    <col min="22" max="22" width="90.85546875" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" customWidth="1"/>
+    <col min="28" max="28" width="5.85546875" customWidth="1"/>
+    <col min="29" max="29" width="7.7109375" customWidth="1"/>
+    <col min="30" max="30" width="38.85546875" customWidth="1"/>
+    <col min="31" max="31" width="13.140625" customWidth="1"/>
+    <col min="32" max="32" width="15.5703125" customWidth="1"/>
+    <col min="33" max="33" width="10.42578125" customWidth="1"/>
+    <col min="34" max="34" width="30.85546875" customWidth="1"/>
+    <col min="35" max="35" width="8.85546875" customWidth="1"/>
+    <col min="36" max="36" width="9.85546875" customWidth="1"/>
+    <col min="37" max="37" width="6.42578125" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" customWidth="1"/>
+    <col min="39" max="39" width="8.140625" customWidth="1"/>
+    <col min="40" max="40" width="13.42578125" customWidth="1"/>
+    <col min="41" max="41" width="36.5703125" customWidth="1"/>
     <col min="42" max="42" width="12" customWidth="1"/>
-    <col min="43" max="43" width="13.86" customWidth="1"/>
-    <col min="44" max="44" width="15.43" customWidth="1"/>
-    <col min="45" max="45" width="12.14" customWidth="1"/>
-    <col min="46" max="46" width="28.43" customWidth="1"/>
-    <col min="47" max="47" width="4.71" customWidth="1"/>
-    <col min="48" max="48" width="19.43" customWidth="1"/>
-    <col min="49" max="49" width="18.43" customWidth="1"/>
-    <col min="50" max="50" width="13.29" customWidth="1"/>
-    <col min="51" max="51" width="9" customWidth="1"/>
-    <col min="52" max="52" width="9" customWidth="1"/>
-    <col min="53" max="53" width="27.29" customWidth="1"/>
-    <col min="54" max="54" width="17.57" customWidth="1"/>
+    <col min="43" max="43" width="13.85546875" customWidth="1"/>
+    <col min="44" max="44" width="15.42578125" customWidth="1"/>
+    <col min="45" max="45" width="12.140625" customWidth="1"/>
+    <col min="46" max="46" width="28.42578125" customWidth="1"/>
+    <col min="47" max="47" width="4.7109375" customWidth="1"/>
+    <col min="48" max="48" width="19.42578125" customWidth="1"/>
+    <col min="49" max="49" width="18.42578125" customWidth="1"/>
+    <col min="50" max="50" width="13.28515625" customWidth="1"/>
+    <col min="51" max="52" width="9" customWidth="1"/>
+    <col min="53" max="53" width="27.28515625" customWidth="1"/>
+    <col min="54" max="54" width="17.5703125" customWidth="1"/>
     <col min="55" max="55" width="26" customWidth="1"/>
-    <col min="56" max="56" width="10.43" customWidth="1"/>
-    <col min="57" max="57" width="9.43" customWidth="1"/>
+    <col min="56" max="56" width="10.42578125" customWidth="1"/>
+    <col min="57" max="57" width="9.42578125" customWidth="1"/>
     <col min="58" max="58" width="19" customWidth="1"/>
-    <col min="59" max="59" width="13.43" customWidth="1"/>
-    <col min="60" max="60" width="20.86" customWidth="1"/>
+    <col min="59" max="59" width="13.42578125" customWidth="1"/>
+    <col min="60" max="60" width="20.85546875" customWidth="1"/>
     <col min="61" max="61" width="12" customWidth="1"/>
-    <col min="62" max="62" width="19.57" customWidth="1"/>
-    <col min="63" max="63" width="16.29" customWidth="1"/>
-    <col min="64" max="64" width="14.86" customWidth="1"/>
-    <col min="65" max="65" width="16.43" customWidth="1"/>
-    <col min="66" max="66" width="15.14" customWidth="1"/>
-    <col min="67" max="67" width="11.86" customWidth="1"/>
-    <col min="68" max="68" width="17.71" customWidth="1"/>
-    <col min="69" max="69" width="26.14" customWidth="1"/>
-    <col min="70" max="70" width="16.57" customWidth="1"/>
-    <col min="71" max="71" width="19.43" customWidth="1"/>
-    <col min="72" max="72" width="18.57" customWidth="1"/>
-    <col min="73" max="73" width="24.86" customWidth="1"/>
-    <col min="74" max="74" width="27.71" customWidth="1"/>
-    <col min="75" max="75" width="25.29" customWidth="1"/>
-    <col min="76" max="76" width="19.14" customWidth="1"/>
+    <col min="62" max="62" width="19.5703125" customWidth="1"/>
+    <col min="63" max="63" width="16.28515625" customWidth="1"/>
+    <col min="64" max="64" width="14.85546875" customWidth="1"/>
+    <col min="65" max="65" width="16.42578125" customWidth="1"/>
+    <col min="66" max="66" width="15.140625" customWidth="1"/>
+    <col min="67" max="67" width="11.85546875" customWidth="1"/>
+    <col min="68" max="68" width="17.7109375" customWidth="1"/>
+    <col min="69" max="69" width="26.140625" customWidth="1"/>
+    <col min="70" max="70" width="16.5703125" customWidth="1"/>
+    <col min="71" max="71" width="19.42578125" customWidth="1"/>
+    <col min="72" max="72" width="18.5703125" customWidth="1"/>
+    <col min="73" max="73" width="24.85546875" customWidth="1"/>
+    <col min="74" max="74" width="27.7109375" customWidth="1"/>
+    <col min="75" max="75" width="25.28515625" customWidth="1"/>
+    <col min="76" max="76" width="19.140625" customWidth="1"/>
     <col min="77" max="77" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="72" customHeight="1"/>
-    <row r="2" ht="12.75" customHeight="1">
-      <c t="s" r="A2" s="1">
+    <row r="1" spans="1:77" ht="72" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:77" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="B2" s="1">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c t="s" r="C2" s="1">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c t="s" r="D2" s="1">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c t="s" r="E2" s="1">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c t="s" r="F2" s="1">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
-      <c t="s" r="G2" s="1">
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c t="s" r="H2" s="1">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c t="s" r="I2" s="1">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c t="s" r="J2" s="1">
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c t="s" r="K2" s="1">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c t="s" r="L2" s="1">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c t="s" r="M2" s="1">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
-      <c t="s" r="N2" s="1">
+      <c r="N2" s="1" t="s">
         <v>12</v>
       </c>
-      <c t="s" r="O2" s="1">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c t="s" r="P2" s="1">
+      <c r="P2" s="1" t="s">
         <v>14</v>
       </c>
-      <c t="s" r="Q2" s="1">
+      <c r="Q2" s="1" t="s">
         <v>15</v>
       </c>
-      <c t="s" r="R2" s="1">
+      <c r="R2" s="1" t="s">
         <v>16</v>
       </c>
-      <c t="s" r="S2" s="1">
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c t="s" r="T2" s="1">
+      <c r="T2" s="1" t="s">
         <v>18</v>
       </c>
-      <c t="s" r="U2" s="1">
+      <c r="U2" s="1" t="s">
         <v>19</v>
       </c>
-      <c t="s" r="V2" s="1">
+      <c r="V2" s="1" t="s">
         <v>20</v>
       </c>
-      <c t="s" r="W2" s="1">
+      <c r="W2" s="1" t="s">
         <v>21</v>
       </c>
-      <c t="s" r="X2" s="1">
+      <c r="X2" s="1" t="s">
         <v>22</v>
       </c>
-      <c t="s" r="Y2" s="1">
+      <c r="Y2" s="1" t="s">
         <v>23</v>
       </c>
-      <c t="s" r="Z2" s="1">
+      <c r="Z2" s="1" t="s">
         <v>24</v>
       </c>
-      <c t="s" r="AA2" s="1">
+      <c r="AA2" s="1" t="s">
         <v>25</v>
       </c>
-      <c t="s" r="AB2" s="1">
+      <c r="AB2" s="1" t="s">
         <v>26</v>
       </c>
-      <c t="s" r="AC2" s="1">
+      <c r="AC2" s="1" t="s">
         <v>27</v>
       </c>
-      <c t="s" r="AD2" s="1">
+      <c r="AD2" s="1" t="s">
         <v>28</v>
       </c>
-      <c t="s" r="AE2" s="1">
+      <c r="AE2" s="1" t="s">
         <v>29</v>
       </c>
-      <c t="s" r="AF2" s="1">
+      <c r="AF2" s="1" t="s">
         <v>30</v>
       </c>
-      <c t="s" r="AG2" s="1">
+      <c r="AG2" s="1" t="s">
         <v>31</v>
       </c>
-      <c t="s" r="AH2" s="1">
+      <c r="AH2" s="1" t="s">
         <v>32</v>
       </c>
-      <c t="s" r="AI2" s="1">
+      <c r="AI2" s="1" t="s">
         <v>33</v>
       </c>
-      <c t="s" r="AJ2" s="1">
+      <c r="AJ2" s="1" t="s">
         <v>34</v>
       </c>
-      <c t="s" r="AK2" s="1">
+      <c r="AK2" s="1" t="s">
         <v>35</v>
       </c>
-      <c t="s" r="AL2" s="1">
+      <c r="AL2" s="1" t="s">
         <v>36</v>
       </c>
-      <c t="s" r="AM2" s="1">
+      <c r="AM2" s="1" t="s">
         <v>37</v>
       </c>
-      <c t="s" r="AN2" s="1">
+      <c r="AN2" s="1" t="s">
         <v>38</v>
       </c>
-      <c t="s" r="AO2" s="1">
+      <c r="AO2" s="1" t="s">
         <v>39</v>
       </c>
-      <c t="s" r="AP2" s="1">
+      <c r="AP2" s="1" t="s">
         <v>40</v>
       </c>
-      <c t="s" r="AQ2" s="1">
+      <c r="AQ2" s="1" t="s">
         <v>41</v>
       </c>
-      <c t="s" r="AR2" s="1">
+      <c r="AR2" s="1" t="s">
         <v>42</v>
       </c>
-      <c t="s" r="AS2" s="1">
+      <c r="AS2" s="1" t="s">
         <v>43</v>
       </c>
-      <c t="s" r="AT2" s="1">
+      <c r="AT2" s="1" t="s">
         <v>44</v>
       </c>
-      <c t="s" r="AU2" s="1">
+      <c r="AU2" s="1" t="s">
         <v>45</v>
       </c>
-      <c t="s" r="AV2" s="1">
+      <c r="AV2" s="1" t="s">
         <v>46</v>
       </c>
-      <c t="s" r="AW2" s="1">
+      <c r="AW2" s="1" t="s">
         <v>47</v>
       </c>
-      <c t="s" r="AX2" s="1">
+      <c r="AX2" s="1" t="s">
         <v>48</v>
       </c>
-      <c t="s" r="AY2" s="1">
+      <c r="AY2" s="1" t="s">
         <v>49</v>
       </c>
-      <c t="s" r="AZ2" s="1">
+      <c r="AZ2" s="1" t="s">
         <v>50</v>
       </c>
-      <c t="s" r="BA2" s="1">
+      <c r="BA2" s="1" t="s">
         <v>51</v>
       </c>
-      <c t="s" r="BB2" s="1">
+      <c r="BB2" s="1" t="s">
         <v>52</v>
       </c>
-      <c t="s" r="BC2" s="1">
+      <c r="BC2" s="1" t="s">
         <v>53</v>
       </c>
-      <c t="s" r="BD2" s="1">
+      <c r="BD2" s="1" t="s">
         <v>54</v>
       </c>
-      <c t="s" r="BE2" s="1">
+      <c r="BE2" s="1" t="s">
         <v>55</v>
       </c>
-      <c t="s" r="BF2" s="1">
+      <c r="BF2" s="1" t="s">
         <v>56</v>
       </c>
-      <c t="s" r="BG2" s="1">
+      <c r="BG2" s="1" t="s">
         <v>57</v>
       </c>
-      <c t="s" r="BH2" s="1">
+      <c r="BH2" s="1" t="s">
         <v>58</v>
       </c>
-      <c t="s" r="BI2" s="1">
+      <c r="BI2" s="1" t="s">
         <v>59</v>
       </c>
-      <c t="s" r="BJ2" s="1">
+      <c r="BJ2" s="1" t="s">
         <v>60</v>
       </c>
-      <c t="s" r="BK2" s="1">
+      <c r="BK2" s="1" t="s">
         <v>61</v>
       </c>
-      <c t="s" r="BL2" s="1">
+      <c r="BL2" s="1" t="s">
         <v>62</v>
       </c>
-      <c t="s" r="BM2" s="1">
+      <c r="BM2" s="1" t="s">
         <v>63</v>
       </c>
-      <c t="s" r="BN2" s="1">
+      <c r="BN2" s="1" t="s">
         <v>64</v>
       </c>
-      <c t="s" r="BO2" s="1">
+      <c r="BO2" s="1" t="s">
         <v>65</v>
       </c>
-      <c t="s" r="BP2" s="1">
+      <c r="BP2" s="1" t="s">
         <v>66</v>
       </c>
-      <c t="s" r="BQ2" s="1">
+      <c r="BQ2" s="1" t="s">
         <v>67</v>
       </c>
-      <c t="s" r="BR2" s="1">
+      <c r="BR2" s="1" t="s">
         <v>68</v>
       </c>
-      <c t="s" r="BS2" s="1">
+      <c r="BS2" s="1" t="s">
         <v>69</v>
       </c>
-      <c t="s" r="BT2" s="1">
+      <c r="BT2" s="1" t="s">
         <v>70</v>
       </c>
-      <c t="s" r="BU2" s="1">
+      <c r="BU2" s="1" t="s">
         <v>71</v>
       </c>
-      <c t="s" r="BV2" s="1">
+      <c r="BV2" s="1" t="s">
         <v>72</v>
       </c>
-      <c t="s" r="BW2" s="1">
+      <c r="BW2" s="1" t="s">
         <v>73</v>
       </c>
-      <c t="s" r="BX2" s="1">
+      <c r="BX2" s="1" t="s">
         <v>74</v>
       </c>
-      <c t="s" r="BY2" s="1">
+      <c r="BY2" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:77" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="3"/>
-      <c t="s" r="D3" s="4">
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>76</v>
       </c>
-      <c t="s" r="E3" s="2">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>77</v>
       </c>
-      <c t="s" r="F3" s="2">
-        <v>78</v>
-      </c>
-      <c t="s" r="G3" s="4">
-        <v>79</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c t="s" r="I3" s="4">
-        <v>80</v>
-      </c>
       <c r="J3" s="5">
-        <v>45388</v>
-      </c>
-      <c r="K3" s="3">
-        <v>68</v>
-      </c>
-      <c r="L3" s="3">
-        <v>9</v>
-      </c>
-      <c t="s" r="M3" s="4">
-        <v>81</v>
-      </c>
-      <c t="s" r="N3" s="4">
-        <v>82</v>
-      </c>
+        <v>45445</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
-      <c t="s" r="Q3" s="2">
-        <v>83</v>
-      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
-      <c t="s" r="S3" s="4">
-        <v>84</v>
-      </c>
-      <c t="s" r="T3" s="4">
-        <v>85</v>
-      </c>
-      <c t="s" r="U3" s="2">
-        <v>86</v>
-      </c>
-      <c t="s" r="V3" s="4">
-        <v>87</v>
-      </c>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="4"/>
       <c r="W3" s="4"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="6"/>
-      <c t="s" r="Z3" s="4">
-        <v>88</v>
+      <c r="Z3" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="AA3" s="4"/>
-      <c t="s" r="AB3" s="4">
-        <v>89</v>
-      </c>
-      <c t="s" r="AC3" s="4">
-        <v>90</v>
-      </c>
-      <c t="s" r="AD3" s="4">
-        <v>91</v>
-      </c>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
       <c r="AE3" s="4"/>
-      <c t="s" r="AF3" s="6">
-        <v>92</v>
-      </c>
+      <c r="AF3" s="6"/>
       <c r="AG3" s="7"/>
-      <c t="s" r="AH3" s="4">
-        <v>93</v>
+      <c r="AH3" s="4" t="s">
+        <v>79</v>
       </c>
       <c r="AI3" s="2"/>
-      <c t="s" r="AJ3" s="2">
-        <v>83</v>
-      </c>
+      <c r="AJ3" s="2"/>
       <c r="AK3" s="3"/>
       <c r="AL3" s="4"/>
       <c r="AM3" s="2"/>
       <c r="AN3" s="2"/>
-      <c t="s" r="AO3" s="4">
-        <v>94</v>
-      </c>
-      <c r="AP3" s="5">
-        <v>45456</v>
-      </c>
-      <c t="s" r="AQ3" s="4">
-        <v>95</v>
-      </c>
-      <c t="s" r="AR3" s="4">
-        <v>96</v>
-      </c>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
       <c r="AS3" s="4"/>
-      <c t="s" r="AT3" s="4">
-        <v>97</v>
-      </c>
+      <c r="AT3" s="4"/>
       <c r="AU3" s="4"/>
       <c r="AV3" s="2"/>
-      <c t="s" r="AW3" s="4">
-        <v>98</v>
-      </c>
-      <c t="s" r="AX3" s="4">
-        <v>99</v>
-      </c>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
       <c r="AY3" s="4"/>
       <c r="AZ3" s="4"/>
       <c r="BA3" s="4"/>
@@ -1132,36 +1084,250 @@
       <c r="BJ3" s="4"/>
       <c r="BK3" s="6"/>
       <c r="BL3" s="4"/>
-      <c t="s" r="BM3" s="2">
-        <v>83</v>
-      </c>
+      <c r="BM3" s="2"/>
       <c r="BN3" s="4"/>
-      <c t="s" r="BO3" s="4">
-        <v>100</v>
-      </c>
+      <c r="BO3" s="4"/>
       <c r="BP3" s="4"/>
       <c r="BQ3" s="8"/>
       <c r="BR3" s="4"/>
-      <c t="s" r="BS3" s="2">
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="5"/>
+      <c r="BU3" s="4"/>
+      <c r="BV3" s="4"/>
+      <c r="BW3" s="4"/>
+      <c r="BX3" s="4"/>
+      <c r="BY3" s="4"/>
+    </row>
+    <row r="6" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="9">
+        <v>45445</v>
+      </c>
+      <c r="I6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
+      </c>
+      <c r="K6" t="s">
         <v>83</v>
       </c>
-      <c r="BT3" s="5">
-        <v>45388</v>
-      </c>
-      <c t="s" r="BU3" s="4">
-        <v>101</v>
-      </c>
-      <c t="s" r="BV3" s="4">
-        <v>102</v>
-      </c>
-      <c t="s" r="BW3" s="4">
-        <v>103</v>
-      </c>
-      <c t="s" r="BX3" s="4">
-        <v>104</v>
-      </c>
-      <c t="s" r="BY3" s="4">
-        <v>105</v>
+      <c r="L6" t="s">
+        <v>84</v>
+      </c>
+      <c r="M6" s="9">
+        <v>45498</v>
+      </c>
+      <c r="N6">
+        <v>52</v>
+      </c>
+      <c r="O6" s="10">
+        <v>4.2361111111111106E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="9">
+        <v>45445</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="9">
+        <v>45498</v>
+      </c>
+      <c r="N7">
+        <v>52</v>
+      </c>
+      <c r="O7" s="10">
+        <v>4.2361111111111106E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="9">
+        <v>45445</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="9">
+        <v>45498</v>
+      </c>
+      <c r="N8">
+        <v>52</v>
+      </c>
+      <c r="O8" s="10">
+        <v>4.2361111111111106E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="9">
+        <v>45445</v>
+      </c>
+      <c r="I9" t="s">
+        <v>87</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="9">
+        <v>45498</v>
+      </c>
+      <c r="N9">
+        <v>52</v>
+      </c>
+      <c r="O9" s="10">
+        <v>4.2361111111111106E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="9">
+        <v>45472</v>
+      </c>
+      <c r="I10" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="9">
+        <v>45523</v>
+      </c>
+      <c r="N10">
+        <v>52</v>
+      </c>
+      <c r="O10" s="10">
+        <v>4.2361111111111106E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="9">
+        <v>45472</v>
+      </c>
+      <c r="I11" t="s">
+        <v>87</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="9">
+        <v>45523</v>
+      </c>
+      <c r="N11">
+        <v>52</v>
+      </c>
+      <c r="O11" s="10">
+        <v>4.2361111111111106E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="9">
+        <v>45445</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
+      </c>
+      <c r="K12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M12" s="9">
+        <v>45498</v>
+      </c>
+      <c r="N12">
+        <v>52</v>
+      </c>
+      <c r="O12" s="10">
+        <v>4.2361111111111106E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G13" s="9">
+        <v>45445</v>
+      </c>
+      <c r="I13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K13" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" t="s">
+        <v>84</v>
+      </c>
+      <c r="M13" s="9">
+        <v>45498</v>
+      </c>
+      <c r="N13">
+        <v>52</v>
+      </c>
+      <c r="O13" s="10">
+        <v>4.2361111111111106E-2</v>
       </c>
     </row>
   </sheetData>
